--- a/extracted_excel/Bungoma_gendered_enterprise.xlsx
+++ b/extracted_excel/Bungoma_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Bungoma</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -145,7 +139,7 @@
     <t>Cow milk Eggs</t>
   </si>
   <si>
-    <t>Youths go for short period maturity enterprises, friendly enterprises, e.g. they may go for value addition, transport, marketing (social media, IT) Formation of common interest groups (CIGs), producer groups, marketing groups, processors, supplier groups, (PRA) Participatory Rural Appraisal</t>
+    <t>, Youths go for short period maturity enterprises, friendly enterprises, e.g. they may go for value addition, transport, marketing (social media, IT),Formation of common interest groups (CIGs), producer groups, marketing groups,processors, supplier groups,(PRA) Participatory Rural Appraisal</t>
   </si>
   <si>
     <t>Youths go for short period maturity enterprises, friendly enterprises, e.g. they may go for value addition, transport, marketing (social media, IT) Men go for high value capital intensive value chains like dairy/sugarcane/coffee/cotton productions Women do short-term crops/subsistence crops like ground nuts, vegetables, african leafy vegetables, finger millet, orphaned crops (cow peas, green grams, sorghum, sweet potatoes, cassava) people tend to shy away from capital intensive enterprises Geography-lakeside dwellers fish, Traditional value chains are preferred to the conventional ones</t>
@@ -154,13 +148,10 @@
     <t>ALVs Banana</t>
   </si>
   <si>
-    <t>No response provided</t>
-  </si>
-  <si>
     <t>High demand for ALVs High demand for eggs and milk Easy to manage Availability of inputs</t>
   </si>
   <si>
-    <t>crop-based enterprises Activities Men Women Youth Land Preparation Men Youth Planting Men Women Youth Weeding Women Youth Harvesting Women Youth Transportation Men Youth Storage Women Shelling, Grading and threshing Women Youth Selling Men Youth Livestock-based enterprises Activities Men Women Youth Breeding Men Youth Grazing/feeding Men Women Youth Disease Control Men Youth Milking Women Youth Selling Men Women</t>
+    <t>crop-based enterprises Activities Men Women Youth Land Preparation Men Youth Planting Men Women Youth Weeding Women Youth Harvesting Women Youth Transportation Men Youth Storage Women Shelling, Grading and threshing Women Youth Selling Men Youth  Livestock-based enterprises Activities Men Women Youth Breeding Men Youth Grazing/feeding Men Women Youth Disease Control Men Youth Milking Women Youth Selling Men Women</t>
   </si>
   <si>
     <t>Lack of access to land ownership Limited access to credit Lack of Structured markets</t>
@@ -178,7 +169,7 @@
     <t>Challenges faced: Women have limited access to ICT, digital gadgets, internet, digital literacy due to high cost Lack of digital literacy</t>
   </si>
   <si>
-    <t>a. land, Men - have easier access to land Women/Youth - Limited access to land b. Finance-the overall financial landscape for access including the informal such as community savings and loans associations Saccos banks, insurance services, Men - have limited access to community/local savings, e.g VSLA Men - have easy access to banks because of collateral, e.g land Women - have easy access to community/local savings but limited access to bank loans Youths- have access to digital lending platforms, e.g branch, Tala hustler funds c. Access to training and knowledge/extension Women - have access to training and knowledge/extension d. Access to information as market (KAMIS), weather *Weekly weather updates are available to all extension officers Market and weather information is equally accessible to all gender. Women have limited access because of limited digital platforms e. Access to technology eg ICT, digital gadgets, internet, digital literacy Women have limited access to ICT, digital gadgets, internet, digital literacy Men are less limited to ICT, digital gadgets, internet, digital literacy Youth have more access to ICT, digital gadgets, internet, digital literacy</t>
+    <t>a. land, Men - have easier access to land Women/Youth - Limited access to land  b. Finance-the overall financial landscape for access including the informal such as community savings and loans associations Saccos banks, insurance services, Men - have limited access to community/local savings, e.g VSLA Men - have easy access to banks because of collateral, e.g land Women - have easy access to community/local savings but limited access to bank loans Youths- have access to digital lending platforms, e.g branch, Tala hustler funds  c. Access to training and knowledge/extension Women - have access to training and knowledge/extension     d. Access to information as market (KAMIS), weather *Weekly weather updates are available to all extension officers Market and weather information is equally accessible to all gender. Women have limited access because of limited digital platforms  e. Access to technology eg ICT, digital gadgets, internet, digital literacy Women have limited access to ICT, digital gadgets, internet, digital literacy Men are less limited to ICT, digital gadgets, internet, digital literacy Youth have more access to ICT, digital gadgets, internet, digital literacy</t>
   </si>
   <si>
     <t>High Demand for:</t>
@@ -211,13 +202,16 @@
     <t>Civil societies Women self help groups CBOs</t>
   </si>
   <si>
-    <t>Supporting policies and regulations for example limiting imports of locally available products</t>
+    <t>Supporting policies and regulations for example limiting imports of locally available products Access to credit Land lease regulations to empower youth and women to access land for agriculture</t>
   </si>
   <si>
     <t>similar to no.4</t>
   </si>
   <si>
     <t>Enabling: Bungoma County Climate Change Policy Bungoma County Climate Change Fund Act Bungoma County Climate Change Action Plan Enables women and youth to access the fund to implement climate change actions Hindering: National lands policy- too broad and not gender sensitive, needs review They may exist other policies but they may not be gender sensitive</t>
+  </si>
+  <si>
+    <t>Access to credit Training/knowledge and information Enabling policies and legal frameworks</t>
   </si>
 </sst>
 </file>
@@ -575,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,414 +585,318 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
